--- a/CONVERSAO_HORAS_DECIMAIS.xlsx
+++ b/CONVERSAO_HORAS_DECIMAIS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devse\OneDrive\Documentos\GitHub\CALCULADORA-HORASMINUTOS-MINUTOSHORAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devse\OneDrive\Documentos\GitHub\Conversor-de-Horas-para-Horas-Decimais-em-Planilha-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="evento_simplificado.xls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>Matrícula</t>
   </si>
@@ -44,30 +44,6 @@
   </si>
   <si>
     <t>sim</t>
-  </si>
-  <si>
-    <t>GIELSON</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>JEAN</t>
-  </si>
-  <si>
-    <t>ROSIVALDO</t>
-  </si>
-  <si>
-    <t>THAIS</t>
-  </si>
-  <si>
-    <t>ALAN</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>WEMERSON</t>
   </si>
   <si>
     <t>não</t>
@@ -476,8 +452,8 @@
   <sheetPr codeName="evento_simplificado.xls"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -536,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -554,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -572,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -590,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -608,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -626,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -644,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -669,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,16 +682,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -729,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -738,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -752,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -761,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -775,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -784,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>12</v>
@@ -798,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -807,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -816,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -825,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -834,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -843,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" s="4"/>
       <c r="I8" s="5"/>
@@ -853,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -862,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4">
         <v>9</v>
